--- a/vm_access.xlsx
+++ b/vm_access.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Library/CloudStorage/Dropbox-IIS/Training/Automate Everything/Automation Developer/classpage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Library/CloudStorage/Dropbox-IIS/Training/Automate Everything/Automation Developer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D0BF841-4F3B-FA47-A5B3-7F047E1087A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86AEDB-0EE5-2E45-A54B-9932EB2F528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="6140" windowWidth="28040" windowHeight="17440" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="920" yWindow="1060" windowWidth="35360" windowHeight="18160" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>Virtual Machine Username</t>
   </si>
@@ -44,12 +45,6 @@
     <t>Virtual Machine Password</t>
   </si>
   <si>
-    <t>Abdul</t>
-  </si>
-  <si>
-    <t>Qazi</t>
-  </si>
-  <si>
     <t>Ahmer</t>
   </si>
   <si>
@@ -237,13 +232,103 @@
   </si>
   <si>
     <t>https://html.inspiredvlabs.com/</t>
+  </si>
+  <si>
+    <t>Sri</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>IAM Account</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>@innovationinsoftware.com</t>
+  </si>
+  <si>
+    <t>iis-student#</t>
+  </si>
+  <si>
+    <t>Tr@!ninG2024</t>
+  </si>
+  <si>
+    <t>autodev-admin</t>
+  </si>
+  <si>
+    <t>iis-student1</t>
+  </si>
+  <si>
+    <t>iis-student2</t>
+  </si>
+  <si>
+    <t>iis-student4</t>
+  </si>
+  <si>
+    <t>iis-student5</t>
+  </si>
+  <si>
+    <t>iis-student6</t>
+  </si>
+  <si>
+    <t>iis-student7</t>
+  </si>
+  <si>
+    <t>iis-student9</t>
+  </si>
+  <si>
+    <t>iis-student10</t>
+  </si>
+  <si>
+    <t>iis-student11</t>
+  </si>
+  <si>
+    <t>iis-student13</t>
+  </si>
+  <si>
+    <t>iis-student14</t>
+  </si>
+  <si>
+    <t>iis-student16</t>
+  </si>
+  <si>
+    <t>iis-student17</t>
+  </si>
+  <si>
+    <t>iis-student19</t>
+  </si>
+  <si>
+    <t>iis-student20</t>
+  </si>
+  <si>
+    <t>iis-student21</t>
+  </si>
+  <si>
+    <t>iis-student30</t>
+  </si>
+  <si>
+    <t>iis-student31</t>
+  </si>
+  <si>
+    <t>iis-student32</t>
+  </si>
+  <si>
+    <t>iis-student33</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +370,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,14 +435,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -665,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958E8A9-E161-5C44-B8F2-734EF675BF3B}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,12 +795,12 @@
     <col min="7" max="7" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -695,253 +810,255 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+    <row r="6" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3" t="s">
+    <row r="7" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3" t="s">
+    <row r="8" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3" t="s">
+    <row r="9" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3" t="s">
+    <row r="10" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
+    <row r="11" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3" t="s">
+    <row r="12" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3" t="s">
+    <row r="13" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3" t="s">
+    <row r="14" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3" t="s">
+    <row r="15" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3" t="s">
+    <row r="16" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -950,5 +1067,485 @@
     <hyperlink ref="I2" r:id="rId1" xr:uid="{4C89AB77-1FB9-4142-BAFC-02E20EDEFA0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935CD4B2-296E-3842-BB6A-4DBF3071FB4D}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vm_access.xlsx
+++ b/vm_access.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Library/CloudStorage/Dropbox-IIS/Training/Automate Everything/Automation Developer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86AEDB-0EE5-2E45-A54B-9932EB2F528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA4FBA-E614-9643-9790-274494DBD0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1060" windowWidth="35360" windowHeight="18160" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="920" yWindow="1060" windowWidth="35360" windowHeight="18160" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>Virtual Machine Username</t>
   </si>
@@ -322,13 +322,73 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Alam, Saad</t>
+  </si>
+  <si>
+    <t>Alzate Carvajal, Sam</t>
+  </si>
+  <si>
+    <t>Arla, Krishna Raja Sekhar</t>
+  </si>
+  <si>
+    <t>Cheema, Ahmer</t>
+  </si>
+  <si>
+    <t>Fleming, George</t>
+  </si>
+  <si>
+    <t>Gaziani, Saleem</t>
+  </si>
+  <si>
+    <t>Gilani, Faruq</t>
+  </si>
+  <si>
+    <t>Harris, Sam</t>
+  </si>
+  <si>
+    <t>Hill, Ardezia</t>
+  </si>
+  <si>
+    <t>Inturi, Vijaya</t>
+  </si>
+  <si>
+    <t>Jain, Rakesh</t>
+  </si>
+  <si>
+    <t>Jones, Nnamdi</t>
+  </si>
+  <si>
+    <t>Leelakrishnan, Srihari</t>
+  </si>
+  <si>
+    <t>Liu, Annie</t>
+  </si>
+  <si>
+    <t>Muppala, Jayasree</t>
+  </si>
+  <si>
+    <t>Palakurthy, Swapna</t>
+  </si>
+  <si>
+    <t>Veerapathiran, Varun</t>
+  </si>
+  <si>
+    <t>Vyasa, Jayesh</t>
+  </si>
+  <si>
+    <t>White, John</t>
+  </si>
+  <si>
+    <t>Yarlagadda, Sitaram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +458,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -445,6 +511,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958E8A9-E161-5C44-B8F2-734EF675BF3B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,11 +1142,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935CD4B2-296E-3842-BB6A-4DBF3071FB4D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -1126,8 +1200,8 @@
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
+      <c r="A3" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1147,8 +1221,8 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
+      <c r="A4" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1168,8 +1242,8 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
+      <c r="A5" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1189,8 +1263,8 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
+      <c r="A6" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1210,8 +1284,8 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
+      <c r="A7" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1231,8 +1305,8 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
+      <c r="A8" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1252,8 +1326,8 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
+      <c r="A9" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1273,8 +1347,8 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
+      <c r="A10" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1294,8 +1368,8 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
+      <c r="A11" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1315,8 +1389,8 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>38</v>
+      <c r="A12" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1336,8 +1410,8 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
+      <c r="A13" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1357,8 +1431,8 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
+      <c r="A14" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1378,8 +1452,8 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>4</v>
+      <c r="A15" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1399,8 +1473,8 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
+      <c r="A16" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1420,8 +1494,8 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
+      <c r="A17" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1441,8 +1515,8 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>65</v>
+      <c r="A18" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1462,8 +1536,8 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>36</v>
+      <c r="A19" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1483,8 +1557,8 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>12</v>
+      <c r="A20" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1504,8 +1578,8 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>16</v>
+      <c r="A21" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1525,8 +1599,8 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>32</v>
+      <c r="A22" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1547,5 +1621,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>